--- a/uploads/excel/cheques_2025.xlsx
+++ b/uploads/excel/cheques_2025.xlsx
@@ -1255,7 +1255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1384,6 +1384,251 @@
       <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EN ATTENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>100122</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>FIKRI</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>EN ATTENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>TEFD</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Fokri</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>23234</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>ENCAISSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1313</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>ENCAISSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Al Barid Bank</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>ENCAISSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>132324</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Al Barid Bank</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>frr</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>33434</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>ENCAISSE</t>
         </is>
       </c>
     </row>

--- a/uploads/excel/cheques_2025.xlsx
+++ b/uploads/excel/cheques_2025.xlsx
@@ -1583,7 +1583,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>ENCAISSE</t>
+          <t>IMPAYE</t>
         </is>
       </c>
     </row>
